--- a/Secretarias/SPC/CAPACITACION.xlsx
+++ b/Secretarias/SPC/CAPACITACION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sociodemograficos01\Documents\GitHub\MapasTematicos\Secretarias\SPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkcShadow\Documents\GitHub\MapasTematicos\Secretarias\SPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E6CA92-0523-4B7D-BDC9-DA4751106780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF290AE-A3A0-4EB0-AA7E-4600D6D8EEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="4" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="2021" sheetId="2" r:id="rId3"/>
     <sheet name="2022" sheetId="6" r:id="rId4"/>
     <sheet name="2023" sheetId="7" r:id="rId5"/>
+    <sheet name="2024" sheetId="8" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019'!$A$1:$D$155</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2020'!$A$1:$D$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2021'!$A$1:$D$83</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="570">
   <si>
     <t>Acajete</t>
   </si>
@@ -1757,6 +1758,186 @@
   </si>
   <si>
     <t xml:space="preserve">1era jornada (atlas municipal de riesgos, atención a la emergencia y perspectiva de género y DDHH en la pc municipal), Diseño de escenarios y evacuación de inmuebles, Primeros auxilios psicológicos, Programa interno de protección civil, Frentes fríos y nortes, Instalaciones temporales en caso de desastre, Control y aprovechamiento de enjambres, Delimitación de peligros geológicos, </t>
+  </si>
+  <si>
+    <t>Jornada regional para el fortalecimiento de las capacidades de las UMPC (Sistema de Alerta Temprana para Veracruz SIAT-VER., Creación y Regulación de Asentamientos Humanos con Ética, Sistema de Comando de Incidentes con perspectiva diferenciada)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jornada regional para el fortalecimiento de las capacidades de las UMPC (Sistema de Alerta Temprana para Veracruz SIAT-VER., Creación y Regulación de Asentamientos Humanos con Ética, Sistema de Comando de Incidentes con perspectiva diferenciada),Meteorológia Básica </t>
+  </si>
+  <si>
+    <t>Perspectiva de Género y Protección Civil</t>
+  </si>
+  <si>
+    <t>Jornada regional para el fortalecimiento de las capacidades de las UMPC (Sistema de Alerta Temprana para Veracruz SIAT-VER., Creación y Regulación de Asentamientos Humanos con Ética, Sistema de Comando de Incidentes con perspectiva diferenciada),Meteorológia Básica, Perspectiva de Género y Protección Civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcahualco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrillo Puerto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerro Azul </t>
+  </si>
+  <si>
+    <t>Meteorológia Básica, Perspectiva de Género y Protección Civil</t>
+  </si>
+  <si>
+    <t>Meteorológia Básica</t>
+  </si>
+  <si>
+    <t>Fortín de la Flores</t>
+  </si>
+  <si>
+    <t>Jornada regional para el fortalecimiento de las capacidades de las UMPC (Sistema de Alerta Temprana para Veracruz SIAT-VER., Creación y Regulación de Asentamientos Humanos con Ética, Sistema de Comando de Incidentes con perspectiva diferenciada), Meteorológia Básica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ixhuatlán de Madero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medellín de Bravo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miahuatlán </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixtla de Altamirano </t>
+  </si>
+  <si>
+    <t>Naolinco de Victoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Delgado </t>
+  </si>
+  <si>
+    <t>Jornada regional para el fortalecimiento de las capacidades de las UMPC (Sistema de Alerta Temprana para Veracruz SIAT-VER., Creación y Regulación de Asentamientos Humanos con Ética, Sistema de Comando de Incidentes con perspectiva diferenciada), Perspectiva de Género y Protección Civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Rafael </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacualpan </t>
+  </si>
+  <si>
+    <t>Ciclones Tropicales</t>
+  </si>
+  <si>
+    <t>Jornada regional para el fortalecimiento de las capacidades de las UMPC (Sistema de Alerta Temprana para Veracruz SIAT-VER., Creación y Regulación de Asentamientos Humanos con Ética, Sistema de Comando de Incidentes con perspectiva diferenciada), Preveción de incendios, uso y manejo del extintor</t>
+  </si>
+  <si>
+    <t>Ciclones Tropicales, Primeros Auxilios Psicológicos</t>
+  </si>
+  <si>
+    <t>Ángel R. Cabada</t>
+  </si>
+  <si>
+    <t>Manejo de Fauna , Ciclones Tropicales, Hidrología Operativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castillo de Teayo </t>
+  </si>
+  <si>
+    <t>Introducción a la Protección Civil Y Marco Legal</t>
+  </si>
+  <si>
+    <t>Manejo de Fauna , Primeros Auxilios Psicólogicos, Evaluación Básica de Estructuras, Hidrología Operativa , SIAT-VER</t>
+  </si>
+  <si>
+    <t>Jornada regional para el fortalecimiento de las capacidades de las UMPC (Sistema de Alerta Temprana para Veracruz SIAT-VER., Creación y Regulación de Asentamientos Humanos con Ética, Sistema de Comando de Incidentes con perspectiva diferenciada), Ciclones Tropicales</t>
+  </si>
+  <si>
+    <t>Jornada regional para el fortalecimiento de las capacidades de las UMPC (Sistema de Alerta Temprana para Veracruz SIAT-VER., Creación y Regulación de Asentamientos Humanos con Ética, Sistema de Comando de Incidentes con perspectiva diferenciada), Manejo de Fauna, Primeros Auxilios Psicológicos</t>
+  </si>
+  <si>
+    <t>Jornada regional para el fortalecimiento de las capacidades de las UMPC (Sistema de Alerta Temprana para Veracruz SIAT-VER., Creación y Regulación de Asentamientos Humanos con Ética, Sistema de Comando de Incidentes con perspectiva diferenciada), Manejo de Fauna, Evaluación Básica De Estructuras</t>
+  </si>
+  <si>
+    <t>Jornada regional para el fortalecimiento de las capacidades de las UMPC (Sistema de Alerta Temprana para Veracruz SIAT-VER., Creación y Regulación de Asentamientos Humanos con Ética, Sistema de Comando de Incidentes con perspectiva diferenciada), Manejo de Fauna, Ciclones Tropicales, Hidrología Operativa, Primeros Auxilios Psicológicos, evaluación de Estructuras, SIAT-VER.</t>
+  </si>
+  <si>
+    <t>Evaluación Básica De Estructuras, Hidrología Operativa</t>
+  </si>
+  <si>
+    <t>Manejo de Fauna</t>
+  </si>
+  <si>
+    <t>Jornada regional para el fortalecimiento de las capacidades de las UMPC (Sistema de Alerta Temprana para Veracruz SIAT-VER., Creación y Regulación de Asentamientos Humanos con Ética, Sistema de Comando de Incidentes con perspectiva diferenciada), Ciclones Tropicales, Hidrología Operativa, Primeros Auxilios Psicológicos.</t>
+  </si>
+  <si>
+    <t>Jornada regional para el fortalecimiento de las capacidades de las UMPC (Sistema de Alerta Temprana para Veracruz SIAT-VER., Creación y Regulación de Asentamientos Humanos con Ética, Sistema de Comando de Incidentes con perspectiva diferenciada), Manejo de Fauna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manejo de Fauna </t>
+  </si>
+  <si>
+    <t>Manejo de Fauna, Ciclones Tropicales, Hidrología Operativa, Primeros Auxilios Psicológicos, evaluación de Estructuras, SIAT-VER.</t>
+  </si>
+  <si>
+    <t>Manejo de Fauna, Primeros Auxilios Psicológicos, Evaluación Básica de Estructuras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misantla </t>
+  </si>
+  <si>
+    <t>Jornada regional para el fortalecimiento de las capacidades de las UMPC (Sistema de Alerta Temprana para Veracruz SIAT-VER. ,Creación y Regulación de Asentamientos Humanos con Ética, Sistema de Comando de Incidentes con perspectiva diferenciada), Manejo de Fauna, Ciclones Tropicales, Primeros Auxilios Psicológicos.</t>
+  </si>
+  <si>
+    <t>Jornada regional para el fortalecimiento de las capacidades de las UMPC (Sistema de Alerta Temprana para Veracruz SIAT-VER., Creación y Regulación de Asentamientos Humanos con Ética, Sistema de Comando de Incidentes con perspectiva diferenciada), Ciclones Tropicales.</t>
+  </si>
+  <si>
+    <t>Manejo de Funa, Ciclones Tropicales, Primeros Auxilios Psicológicos, Hidrología Operativa, SIAT- VER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajapan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puente Nacional </t>
+  </si>
+  <si>
+    <t>Manejo de Fauna, Primeros Auxilios Psicológicos</t>
+  </si>
+  <si>
+    <t>Jornada regional para el fortalecimiento de las capacidades de las UMPC (Sistema de Alerta Temprana para Veracruz SIAT-VER., Creación y Regulación de Asentamientos Humanos con Ética, Sistema de Comando de Incidentes con perspectiva diferenciada), Manejo de Fauna, Ciclones Tropicales, Hidrología Operativa, Primeros Auxilios Psicológicos, SIAT-VER</t>
+  </si>
+  <si>
+    <t>Úrsulo Galván</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manejo de Fauna, Ciclones Tropicales, Hidrología Operativa, Primeros Auxilios Psicológicos, SIAT-VER, Evaluación Básica De Estructuras, Hidrología Operativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jornada regional para el fortalecimiento de las capacidades de las UMPC (Sistema de Alerta Temprana para Veracruz SIAT-VER., Creación y Regulación de Asentamientos Humanos con Ética, Sistema de Comando de Incidentes con perspectiva diferenciada), Manejo de Fauna </t>
+  </si>
+  <si>
+    <t>Primer Respondiente En Primeros Auxilios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programa Interno De Protección Civil, Diseño y Desarrollo de Simulacros, Unidad Interna De Protección Civil,  Fenómenos Perturbadores, Factores sociales y culturales subyacetes del riesgo: el violentometro comunitario como herramienta en la gestión prospectiva, </t>
+  </si>
+  <si>
+    <t>Diseño y Desarrollo de Simulacros</t>
+  </si>
+  <si>
+    <t>Replicadores Diseño y Desarrollo de Simulacros</t>
+  </si>
+  <si>
+    <t>Programa Interno De Protección Civil, Diseño y Desarrollo de Simulacros, Factores sociales y culturales subyacetes del riesgo: el violentometro comunitario como herraienta en la gestión prospectiva, Primeros Auxilios Psicológicos.</t>
+  </si>
+  <si>
+    <t>Fenómenos Perturbadores</t>
+  </si>
+  <si>
+    <t>Programa Interno De Protección Civil, Unidad Interna De Protección Civil</t>
+  </si>
+  <si>
+    <t>Tlalnehuayocan</t>
+  </si>
+  <si>
+    <t>Diseño y Desarrollo de Simulacros,Fenómenos Perturbadores, Programa Internos de Protección Civil, Unidad Interna De Protección Civil.</t>
+  </si>
+  <si>
+    <t>Programa Internos de Protección Civil, Diseño y Desarrollo de Simulacros, Unidad Interna De Protección Civil, Fenómenos Perturbadores</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +2017,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1858,6 +2039,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2DEFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1931,7 +2130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2008,6 +2207,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Énfasis1" xfId="1" builtinId="31"/>
@@ -3851,6 +4068,14 @@
           </cell>
           <cell r="E227">
             <v>13000</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="D228" t="str">
+            <v>Tlajomulco de Záñiga</v>
+          </cell>
+          <cell r="E228">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -4162,15 +4387,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="120.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="120.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>255</v>
       </c>
@@ -4184,7 +4409,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>30006</v>
       </c>
@@ -4198,7 +4423,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>30008</v>
       </c>
@@ -4212,7 +4437,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>30009</v>
       </c>
@@ -4226,7 +4451,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>30011</v>
       </c>
@@ -4240,7 +4465,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>30012</v>
       </c>
@@ -4254,7 +4479,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>30013</v>
       </c>
@@ -4268,7 +4493,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>30014</v>
       </c>
@@ -4282,7 +4507,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>30015</v>
       </c>
@@ -4296,7 +4521,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>30016</v>
       </c>
@@ -4310,7 +4535,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>30018</v>
       </c>
@@ -4324,7 +4549,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>30019</v>
       </c>
@@ -4338,7 +4563,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>30020</v>
       </c>
@@ -4352,7 +4577,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>30021</v>
       </c>
@@ -4366,7 +4591,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>30022</v>
       </c>
@@ -4380,7 +4605,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>30023</v>
       </c>
@@ -4394,7 +4619,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>30024</v>
       </c>
@@ -4408,7 +4633,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>30028</v>
       </c>
@@ -4422,7 +4647,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>30029</v>
       </c>
@@ -4436,7 +4661,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>30030</v>
       </c>
@@ -4450,7 +4675,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>30032</v>
       </c>
@@ -4464,7 +4689,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>30033</v>
       </c>
@@ -4478,7 +4703,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>30034</v>
       </c>
@@ -4492,7 +4717,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>30039</v>
       </c>
@@ -4506,7 +4731,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>30040</v>
       </c>
@@ -4520,7 +4745,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>30041</v>
       </c>
@@ -4534,7 +4759,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>30043</v>
       </c>
@@ -4548,7 +4773,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>30044</v>
       </c>
@@ -4562,7 +4787,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>30045</v>
       </c>
@@ -4576,7 +4801,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>30046</v>
       </c>
@@ -4590,7 +4815,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30047</v>
       </c>
@@ -4604,7 +4829,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30048</v>
       </c>
@@ -4618,7 +4843,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30049</v>
       </c>
@@ -4632,7 +4857,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30050</v>
       </c>
@@ -4646,7 +4871,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>30051</v>
       </c>
@@ -4660,7 +4885,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>30052</v>
       </c>
@@ -4674,7 +4899,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>30054</v>
       </c>
@@ -4688,7 +4913,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>30055</v>
       </c>
@@ -4702,7 +4927,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>30056</v>
       </c>
@@ -4716,7 +4941,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>30058</v>
       </c>
@@ -4730,7 +4955,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>30059</v>
       </c>
@@ -4744,7 +4969,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>30060</v>
       </c>
@@ -4758,7 +4983,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>30063</v>
       </c>
@@ -4772,7 +4997,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>30064</v>
       </c>
@@ -4786,7 +5011,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>30065</v>
       </c>
@@ -4800,7 +5025,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>30066</v>
       </c>
@@ -4814,7 +5039,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>30068</v>
       </c>
@@ -4828,7 +5053,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>30069</v>
       </c>
@@ -4842,7 +5067,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>30070</v>
       </c>
@@ -4856,7 +5081,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>30071</v>
       </c>
@@ -4870,7 +5095,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>30072</v>
       </c>
@@ -4884,7 +5109,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>30073</v>
       </c>
@@ -4898,7 +5123,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>30074</v>
       </c>
@@ -4912,7 +5137,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>30075</v>
       </c>
@@ -4926,7 +5151,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>30077</v>
       </c>
@@ -4940,7 +5165,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>30078</v>
       </c>
@@ -4954,7 +5179,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>30079</v>
       </c>
@@ -4968,7 +5193,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>30080</v>
       </c>
@@ -4982,7 +5207,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>30081</v>
       </c>
@@ -4996,7 +5221,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>30083</v>
       </c>
@@ -5010,7 +5235,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>30085</v>
       </c>
@@ -5024,7 +5249,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>30086</v>
       </c>
@@ -5038,7 +5263,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>30087</v>
       </c>
@@ -5052,7 +5277,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>30088</v>
       </c>
@@ -5066,7 +5291,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>30089</v>
       </c>
@@ -5080,7 +5305,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>30090</v>
       </c>
@@ -5094,7 +5319,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>30091</v>
       </c>
@@ -5108,7 +5333,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>30092</v>
       </c>
@@ -5122,7 +5347,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>30094</v>
       </c>
@@ -5136,7 +5361,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>30097</v>
       </c>
@@ -5150,7 +5375,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>30099</v>
       </c>
@@ -5164,7 +5389,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>30100</v>
       </c>
@@ -5178,7 +5403,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>30102</v>
       </c>
@@ -5192,7 +5417,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>30103</v>
       </c>
@@ -5206,7 +5431,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>30104</v>
       </c>
@@ -5220,7 +5445,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>30105</v>
       </c>
@@ -5234,7 +5459,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>30106</v>
       </c>
@@ -5248,7 +5473,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>30107</v>
       </c>
@@ -5262,7 +5487,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>30108</v>
       </c>
@@ -5276,7 +5501,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>30111</v>
       </c>
@@ -5290,7 +5515,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>30114</v>
       </c>
@@ -5304,7 +5529,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>30115</v>
       </c>
@@ -5318,7 +5543,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>30118</v>
       </c>
@@ -5332,7 +5557,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>30119</v>
       </c>
@@ -5346,7 +5571,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>30120</v>
       </c>
@@ -5360,7 +5585,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>30121</v>
       </c>
@@ -5374,7 +5599,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>30122</v>
       </c>
@@ -5388,7 +5613,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>30123</v>
       </c>
@@ -5402,7 +5627,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>30124</v>
       </c>
@@ -5416,7 +5641,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>30125</v>
       </c>
@@ -5430,7 +5655,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>30126</v>
       </c>
@@ -5444,7 +5669,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>30127</v>
       </c>
@@ -5458,7 +5683,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>30131</v>
       </c>
@@ -5472,7 +5697,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>30132</v>
       </c>
@@ -5486,7 +5711,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>30133</v>
       </c>
@@ -5500,7 +5725,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>30134</v>
       </c>
@@ -5514,7 +5739,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>30135</v>
       </c>
@@ -5528,7 +5753,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>30136</v>
       </c>
@@ -5542,7 +5767,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>30137</v>
       </c>
@@ -5556,7 +5781,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>30138</v>
       </c>
@@ -5570,7 +5795,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>30139</v>
       </c>
@@ -5584,7 +5809,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>30141</v>
       </c>
@@ -5598,7 +5823,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>30142</v>
       </c>
@@ -5612,7 +5837,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>30143</v>
       </c>
@@ -5626,7 +5851,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>30144</v>
       </c>
@@ -5640,7 +5865,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>30145</v>
       </c>
@@ -5654,7 +5879,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>30147</v>
       </c>
@@ -5668,7 +5893,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>30148</v>
       </c>
@@ -5682,7 +5907,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>30149</v>
       </c>
@@ -5696,7 +5921,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>30150</v>
       </c>
@@ -5710,7 +5935,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>30151</v>
       </c>
@@ -5724,7 +5949,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>30152</v>
       </c>
@@ -5738,7 +5963,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>30153</v>
       </c>
@@ -5752,7 +5977,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>30154</v>
       </c>
@@ -5766,7 +5991,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>30155</v>
       </c>
@@ -5780,7 +6005,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>30156</v>
       </c>
@@ -5794,7 +6019,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>30157</v>
       </c>
@@ -5808,7 +6033,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>30158</v>
       </c>
@@ -5822,7 +6047,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>30159</v>
       </c>
@@ -5836,7 +6061,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>30160</v>
       </c>
@@ -5850,7 +6075,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>30161</v>
       </c>
@@ -5864,7 +6089,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>30162</v>
       </c>
@@ -5878,7 +6103,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>30165</v>
       </c>
@@ -5892,7 +6117,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>30167</v>
       </c>
@@ -5906,7 +6131,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>30168</v>
       </c>
@@ -5920,7 +6145,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>30169</v>
       </c>
@@ -5934,7 +6159,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>30170</v>
       </c>
@@ -5948,7 +6173,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>30174</v>
       </c>
@@ -5962,7 +6187,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>30176</v>
       </c>
@@ -5976,7 +6201,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>30177</v>
       </c>
@@ -5990,7 +6215,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>30178</v>
       </c>
@@ -6004,7 +6229,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>30179</v>
       </c>
@@ -6018,7 +6243,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>30180</v>
       </c>
@@ -6032,7 +6257,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>30181</v>
       </c>
@@ -6046,7 +6271,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>30182</v>
       </c>
@@ -6060,7 +6285,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>30185</v>
       </c>
@@ -6074,7 +6299,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>30186</v>
       </c>
@@ -6088,7 +6313,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>30187</v>
       </c>
@@ -6102,7 +6327,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>30188</v>
       </c>
@@ -6116,7 +6341,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>30189</v>
       </c>
@@ -6130,7 +6355,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>30191</v>
       </c>
@@ -6144,7 +6369,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>30193</v>
       </c>
@@ -6158,7 +6383,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>30194</v>
       </c>
@@ -6172,7 +6397,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>30198</v>
       </c>
@@ -6186,7 +6411,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>30199</v>
       </c>
@@ -6200,7 +6425,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>30200</v>
       </c>
@@ -6214,7 +6439,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>30201</v>
       </c>
@@ -6228,7 +6453,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>30203</v>
       </c>
@@ -6242,7 +6467,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>30204</v>
       </c>
@@ -6256,7 +6481,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>30205</v>
       </c>
@@ -6270,7 +6495,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>30206</v>
       </c>
@@ -6284,7 +6509,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>30207</v>
       </c>
@@ -6298,7 +6523,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>30208</v>
       </c>
@@ -6312,7 +6537,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>30210</v>
       </c>
@@ -6326,7 +6551,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>30211</v>
       </c>
@@ -6354,15 +6579,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="98.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="98.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>255</v>
       </c>
@@ -6376,7 +6601,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>30001</v>
       </c>
@@ -6390,7 +6615,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>30006</v>
       </c>
@@ -6404,7 +6629,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>30008</v>
       </c>
@@ -6418,7 +6643,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>30011</v>
       </c>
@@ -6432,7 +6657,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>30013</v>
       </c>
@@ -6446,7 +6671,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>30016</v>
       </c>
@@ -6460,7 +6685,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>30021</v>
       </c>
@@ -6474,7 +6699,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>30027</v>
       </c>
@@ -6488,7 +6713,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>30030</v>
       </c>
@@ -6502,7 +6727,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>30031</v>
       </c>
@@ -6516,7 +6741,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>30032</v>
       </c>
@@ -6530,7 +6755,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>30033</v>
       </c>
@@ -6544,7 +6769,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>30034</v>
       </c>
@@ -6558,7 +6783,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>30039</v>
       </c>
@@ -6572,7 +6797,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>30040</v>
       </c>
@@ -6586,7 +6811,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>30041</v>
       </c>
@@ -6600,7 +6825,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>30043</v>
       </c>
@@ -6614,7 +6839,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>30044</v>
       </c>
@@ -6628,7 +6853,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>30046</v>
       </c>
@@ -6642,7 +6867,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>30050</v>
       </c>
@@ -6656,7 +6881,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>30052</v>
       </c>
@@ -6670,7 +6895,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>30053</v>
       </c>
@@ -6684,7 +6909,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>30054</v>
       </c>
@@ -6698,7 +6923,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>30055</v>
       </c>
@@ -6712,7 +6937,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>30059</v>
       </c>
@@ -6726,7 +6951,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>30061</v>
       </c>
@@ -6740,7 +6965,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>30062</v>
       </c>
@@ -6754,7 +6979,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>30063</v>
       </c>
@@ -6768,7 +6993,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>30064</v>
       </c>
@@ -6782,7 +7007,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30065</v>
       </c>
@@ -6796,7 +7021,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30066</v>
       </c>
@@ -6810,7 +7035,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30067</v>
       </c>
@@ -6824,7 +7049,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30068</v>
       </c>
@@ -6838,7 +7063,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>30069</v>
       </c>
@@ -6852,7 +7077,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>30070</v>
       </c>
@@ -6866,7 +7091,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>30071</v>
       </c>
@@ -6880,7 +7105,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>30072</v>
       </c>
@@ -6894,7 +7119,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>30074</v>
       </c>
@@ -6908,7 +7133,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>30075</v>
       </c>
@@ -6922,7 +7147,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>30078</v>
       </c>
@@ -6936,7 +7161,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>30079</v>
       </c>
@@ -6950,7 +7175,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>30080</v>
       </c>
@@ -6964,7 +7189,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>30083</v>
       </c>
@@ -6978,7 +7203,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>30087</v>
       </c>
@@ -6992,7 +7217,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>30089</v>
       </c>
@@ -7006,7 +7231,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>30090</v>
       </c>
@@ -7020,7 +7245,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>30091</v>
       </c>
@@ -7034,7 +7259,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>30092</v>
       </c>
@@ -7048,7 +7273,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>30094</v>
       </c>
@@ -7062,7 +7287,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>30099</v>
       </c>
@@ -7076,7 +7301,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>30100</v>
       </c>
@@ -7090,7 +7315,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>30101</v>
       </c>
@@ -7104,7 +7329,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>30103</v>
       </c>
@@ -7118,7 +7343,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>30104</v>
       </c>
@@ -7132,7 +7357,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>30105</v>
       </c>
@@ -7146,7 +7371,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>30107</v>
       </c>
@@ -7160,7 +7385,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>30108</v>
       </c>
@@ -7174,7 +7399,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>30111</v>
       </c>
@@ -7188,7 +7413,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>30114</v>
       </c>
@@ -7202,7 +7427,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>30115</v>
       </c>
@@ -7216,7 +7441,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>30117</v>
       </c>
@@ -7230,7 +7455,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>30121</v>
       </c>
@@ -7244,7 +7469,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>30123</v>
       </c>
@@ -7258,7 +7483,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>30124</v>
       </c>
@@ -7272,7 +7497,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>30127</v>
       </c>
@@ -7286,7 +7511,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>30128</v>
       </c>
@@ -7300,7 +7525,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>30129</v>
       </c>
@@ -7314,7 +7539,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>30130</v>
       </c>
@@ -7328,7 +7553,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>30131</v>
       </c>
@@ -7342,7 +7567,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>30133</v>
       </c>
@@ -7356,7 +7581,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>30134</v>
       </c>
@@ -7370,7 +7595,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>30138</v>
       </c>
@@ -7384,7 +7609,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>30144</v>
       </c>
@@ -7398,7 +7623,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>30148</v>
       </c>
@@ -7412,7 +7637,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>30150</v>
       </c>
@@ -7426,7 +7651,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>30151</v>
       </c>
@@ -7440,7 +7665,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>30153</v>
       </c>
@@ -7454,7 +7679,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>30155</v>
       </c>
@@ -7468,7 +7693,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>30156</v>
       </c>
@@ -7482,7 +7707,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>30157</v>
       </c>
@@ -7496,7 +7721,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>30158</v>
       </c>
@@ -7510,7 +7735,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>30160</v>
       </c>
@@ -7524,7 +7749,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>30161</v>
       </c>
@@ -7538,7 +7763,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>30162</v>
       </c>
@@ -7552,7 +7777,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>30164</v>
       </c>
@@ -7566,7 +7791,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>30165</v>
       </c>
@@ -7580,7 +7805,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>30167</v>
       </c>
@@ -7594,7 +7819,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>30170</v>
       </c>
@@ -7608,7 +7833,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>30175</v>
       </c>
@@ -7622,7 +7847,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>30186</v>
       </c>
@@ -7636,7 +7861,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>30187</v>
       </c>
@@ -7650,7 +7875,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>30188</v>
       </c>
@@ -7664,7 +7889,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>30189</v>
       </c>
@@ -7678,7 +7903,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>30194</v>
       </c>
@@ -7692,7 +7917,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>30199</v>
       </c>
@@ -7706,7 +7931,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>30202</v>
       </c>
@@ -7720,7 +7945,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>30204</v>
       </c>
@@ -7734,7 +7959,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>30205</v>
       </c>
@@ -7748,7 +7973,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>30206</v>
       </c>
@@ -7762,7 +7987,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>30211</v>
       </c>
@@ -7776,7 +8001,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>30212</v>
       </c>
@@ -7807,15 +8032,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="107" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>255</v>
       </c>
@@ -7829,7 +8054,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>30039</v>
       </c>
@@ -7843,7 +8068,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>30016</v>
       </c>
@@ -7857,7 +8082,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>30034</v>
       </c>
@@ -7871,7 +8096,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>30038</v>
       </c>
@@ -7885,7 +8110,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>30102</v>
       </c>
@@ -7899,7 +8124,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>30206</v>
       </c>
@@ -7913,7 +8138,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>30141</v>
       </c>
@@ -7927,7 +8152,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>30191</v>
       </c>
@@ -7941,7 +8166,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>30087</v>
       </c>
@@ -7955,7 +8180,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>30026</v>
       </c>
@@ -7969,7 +8194,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>30097</v>
       </c>
@@ -7983,7 +8208,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>30130</v>
       </c>
@@ -7997,7 +8222,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>30211</v>
       </c>
@@ -8011,7 +8236,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>30189</v>
       </c>
@@ -8025,7 +8250,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>30193</v>
       </c>
@@ -8039,7 +8264,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>30027</v>
       </c>
@@ -8053,7 +8278,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>30032</v>
       </c>
@@ -8067,7 +8292,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>30205</v>
       </c>
@@ -8081,7 +8306,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>30127</v>
       </c>
@@ -8095,7 +8320,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>30109</v>
       </c>
@@ -8109,7 +8334,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>30013</v>
       </c>
@@ -8123,7 +8348,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>30124</v>
       </c>
@@ -8137,7 +8362,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>30167</v>
       </c>
@@ -8151,7 +8376,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>30183</v>
       </c>
@@ -8165,7 +8390,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>30197</v>
       </c>
@@ -8179,7 +8404,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>30204</v>
       </c>
@@ -8193,7 +8418,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>30160</v>
       </c>
@@ -8207,7 +8432,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>30208</v>
       </c>
@@ -8221,7 +8446,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>30040</v>
       </c>
@@ -8235,7 +8460,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30044</v>
       </c>
@@ -8249,7 +8474,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30045</v>
       </c>
@@ -8263,7 +8488,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30046</v>
       </c>
@@ -8277,7 +8502,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30051</v>
       </c>
@@ -8291,7 +8516,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>30065</v>
       </c>
@@ -8305,7 +8530,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>30071</v>
       </c>
@@ -8319,7 +8544,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>30074</v>
       </c>
@@ -8333,7 +8558,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>30080</v>
       </c>
@@ -8347,7 +8572,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>30085</v>
       </c>
@@ -8361,7 +8586,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>30091</v>
       </c>
@@ -8375,7 +8600,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>30099</v>
       </c>
@@ -8389,7 +8614,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>30104</v>
       </c>
@@ -8403,7 +8628,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>30108</v>
       </c>
@@ -8417,7 +8642,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>30112</v>
       </c>
@@ -8431,7 +8656,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>30115</v>
       </c>
@@ -8445,7 +8670,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>30123</v>
       </c>
@@ -8459,7 +8684,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>30131</v>
       </c>
@@ -8473,7 +8698,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>30174</v>
       </c>
@@ -8487,7 +8712,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>30181</v>
       </c>
@@ -8501,7 +8726,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>30008</v>
       </c>
@@ -8515,7 +8740,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>30010</v>
       </c>
@@ -8529,7 +8754,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>30011</v>
       </c>
@@ -8543,7 +8768,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>30014</v>
       </c>
@@ -8557,7 +8782,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>30025</v>
       </c>
@@ -8571,7 +8796,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>30028</v>
       </c>
@@ -8585,7 +8810,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>30007</v>
       </c>
@@ -8599,7 +8824,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>30030</v>
       </c>
@@ -8613,7 +8838,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>30031</v>
       </c>
@@ -8627,7 +8852,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>30055</v>
       </c>
@@ -8641,7 +8866,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>30056</v>
       </c>
@@ -8655,7 +8880,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>30058</v>
       </c>
@@ -8669,7 +8894,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>30062</v>
       </c>
@@ -8683,7 +8908,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>30063</v>
       </c>
@@ -8697,7 +8922,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>30036</v>
       </c>
@@ -8711,7 +8936,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>30043</v>
       </c>
@@ -8725,7 +8950,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>30050</v>
       </c>
@@ -8739,7 +8964,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>30053</v>
       </c>
@@ -8753,7 +8978,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>30066</v>
       </c>
@@ -8767,7 +8992,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>30078</v>
       </c>
@@ -8781,7 +9006,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>30083</v>
       </c>
@@ -8795,7 +9020,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>30088</v>
       </c>
@@ -8809,7 +9034,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>30089</v>
       </c>
@@ -8823,7 +9048,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>30101</v>
       </c>
@@ -8837,7 +9062,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>30113</v>
       </c>
@@ -8851,7 +9076,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>30114</v>
       </c>
@@ -8865,7 +9090,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>30118</v>
       </c>
@@ -8879,7 +9104,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>30121</v>
       </c>
@@ -8893,7 +9118,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>30128</v>
       </c>
@@ -8907,7 +9132,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>30133</v>
       </c>
@@ -8921,7 +9146,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>30138</v>
       </c>
@@ -8935,7 +9160,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>30212</v>
       </c>
@@ -8949,7 +9174,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>30143</v>
       </c>
@@ -8963,7 +9188,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>30150</v>
       </c>
@@ -8977,7 +9202,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>30156</v>
       </c>
@@ -8991,7 +9216,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>30162</v>
       </c>
@@ -9005,7 +9230,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>30177</v>
       </c>
@@ -9019,7 +9244,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>30024</v>
       </c>
@@ -9033,7 +9258,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>30185</v>
       </c>
@@ -9047,7 +9272,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>30188</v>
       </c>
@@ -9061,7 +9286,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>30207</v>
       </c>
@@ -9075,7 +9300,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>30192</v>
       </c>
@@ -9089,7 +9314,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>30194</v>
       </c>
@@ -9103,7 +9328,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>30092</v>
       </c>
@@ -9117,7 +9342,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>30201</v>
       </c>
@@ -9148,15 +9373,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="16"/>
-    <col min="3" max="3" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="120.140625" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="16"/>
+    <col min="1" max="2" width="11.44140625" style="16"/>
+    <col min="3" max="3" width="12.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="120.109375" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>255</v>
       </c>
@@ -9170,7 +9395,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>30001</v>
       </c>
@@ -9184,7 +9409,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>30002</v>
       </c>
@@ -9198,7 +9423,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>30003</v>
       </c>
@@ -9212,7 +9437,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>30004</v>
       </c>
@@ -9226,7 +9451,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>30005</v>
       </c>
@@ -9240,7 +9465,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>30006</v>
       </c>
@@ -9254,7 +9479,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>30204</v>
       </c>
@@ -9268,7 +9493,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>30160</v>
       </c>
@@ -9282,7 +9507,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>30008</v>
       </c>
@@ -9296,7 +9521,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>30009</v>
       </c>
@@ -9310,7 +9535,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>30010</v>
       </c>
@@ -9324,7 +9549,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>30011</v>
       </c>
@@ -9338,7 +9563,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>30012</v>
       </c>
@@ -9352,7 +9577,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>30014</v>
       </c>
@@ -9366,7 +9591,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>30015</v>
       </c>
@@ -9380,7 +9605,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>30017</v>
       </c>
@@ -9394,7 +9619,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>30018</v>
       </c>
@@ -9408,7 +9633,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>30019</v>
       </c>
@@ -9422,7 +9647,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>30020</v>
       </c>
@@ -9436,7 +9661,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>30021</v>
       </c>
@@ -9450,7 +9675,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>30022</v>
       </c>
@@ -9464,7 +9689,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>30023</v>
       </c>
@@ -9478,7 +9703,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>30025</v>
       </c>
@@ -9492,7 +9717,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>30026</v>
       </c>
@@ -9506,7 +9731,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>30027</v>
       </c>
@@ -9520,7 +9745,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>30028</v>
       </c>
@@ -9534,7 +9759,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>30029</v>
       </c>
@@ -9548,7 +9773,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>30007</v>
       </c>
@@ -9562,7 +9787,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>30030</v>
       </c>
@@ -9576,7 +9801,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>30208</v>
       </c>
@@ -9590,7 +9815,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>30031</v>
       </c>
@@ -9604,7 +9829,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>30157</v>
       </c>
@@ -9618,7 +9843,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>30032</v>
       </c>
@@ -9632,7 +9857,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>30033</v>
       </c>
@@ -9646,7 +9871,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>30034</v>
       </c>
@@ -9660,7 +9885,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>30054</v>
       </c>
@@ -9674,7 +9899,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>30055</v>
       </c>
@@ -9688,7 +9913,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>30056</v>
       </c>
@@ -9702,7 +9927,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>30057</v>
       </c>
@@ -9716,7 +9941,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>30058</v>
       </c>
@@ -9730,7 +9955,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>30059</v>
       </c>
@@ -9744,7 +9969,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>30062</v>
       </c>
@@ -9758,7 +9983,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>30063</v>
       </c>
@@ -9772,7 +9997,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>30035</v>
       </c>
@@ -9786,7 +10011,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
         <v>30036</v>
       </c>
@@ -9800,7 +10025,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
         <v>30038</v>
       </c>
@@ -9814,7 +10039,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
         <v>30039</v>
       </c>
@@ -9828,7 +10053,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>30040</v>
       </c>
@@ -9842,7 +10067,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
         <v>30041</v>
       </c>
@@ -9856,7 +10081,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
         <v>30042</v>
       </c>
@@ -9870,7 +10095,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
         <v>30043</v>
       </c>
@@ -9884,7 +10109,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
         <v>30044</v>
       </c>
@@ -9898,7 +10123,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
         <v>30045</v>
       </c>
@@ -9912,7 +10137,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
         <v>30046</v>
       </c>
@@ -9926,7 +10151,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="17">
         <v>30047</v>
       </c>
@@ -9940,7 +10165,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="17">
         <v>30048</v>
       </c>
@@ -9954,7 +10179,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="17">
         <v>30049</v>
       </c>
@@ -9968,7 +10193,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="17">
         <v>30050</v>
       </c>
@@ -9982,7 +10207,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="17">
         <v>30051</v>
       </c>
@@ -9996,7 +10221,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="17">
         <v>30052</v>
       </c>
@@ -10010,7 +10235,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="17">
         <v>30053</v>
       </c>
@@ -10024,7 +10249,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="17">
         <v>30205</v>
       </c>
@@ -10038,7 +10263,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>30065</v>
       </c>
@@ -10052,7 +10277,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>30066</v>
       </c>
@@ -10066,7 +10291,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>30067</v>
       </c>
@@ -10080,7 +10305,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>30068</v>
       </c>
@@ -10094,7 +10319,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="17">
         <v>30069</v>
       </c>
@@ -10108,7 +10333,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
         <v>30070</v>
       </c>
@@ -10122,7 +10347,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
         <v>30071</v>
       </c>
@@ -10136,7 +10361,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
         <v>30072</v>
       </c>
@@ -10150,7 +10375,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="17">
         <v>30073</v>
       </c>
@@ -10164,7 +10389,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="17">
         <v>30074</v>
       </c>
@@ -10178,7 +10403,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>30075</v>
       </c>
@@ -10192,7 +10417,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="17">
         <v>30076</v>
       </c>
@@ -10206,7 +10431,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="17">
         <v>30077</v>
       </c>
@@ -10220,7 +10445,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="17">
         <v>30078</v>
       </c>
@@ -10234,7 +10459,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="17">
         <v>30079</v>
       </c>
@@ -10248,7 +10473,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="17">
         <v>30083</v>
       </c>
@@ -10262,7 +10487,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="17">
         <v>30080</v>
       </c>
@@ -10276,7 +10501,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="17">
         <v>30082</v>
       </c>
@@ -10290,7 +10515,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="17">
         <v>30081</v>
       </c>
@@ -10304,7 +10529,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="17">
         <v>30084</v>
       </c>
@@ -10318,7 +10543,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="17">
         <v>30085</v>
       </c>
@@ -10332,7 +10557,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="17">
         <v>30086</v>
       </c>
@@ -10346,7 +10571,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="17">
         <v>30088</v>
       </c>
@@ -10360,7 +10585,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="17">
         <v>30089</v>
       </c>
@@ -10374,7 +10599,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="17">
         <v>30090</v>
       </c>
@@ -10388,7 +10613,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="17">
         <v>30091</v>
       </c>
@@ -10402,7 +10627,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="17">
         <v>30093</v>
       </c>
@@ -10416,7 +10641,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="17">
         <v>30169</v>
       </c>
@@ -10430,7 +10655,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="17">
         <v>30094</v>
       </c>
@@ -10444,7 +10669,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="17">
         <v>30095</v>
       </c>
@@ -10458,7 +10683,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="17">
         <v>30016</v>
       </c>
@@ -10472,7 +10697,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="17">
         <v>30127</v>
       </c>
@@ -10486,7 +10711,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="17">
         <v>30096</v>
       </c>
@@ -10500,7 +10725,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="17">
         <v>30061</v>
       </c>
@@ -10514,7 +10739,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="17">
         <v>30107</v>
       </c>
@@ -10528,7 +10753,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="17">
         <v>30132</v>
       </c>
@@ -10542,7 +10767,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="17">
         <v>30097</v>
       </c>
@@ -10556,7 +10781,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="17">
         <v>30137</v>
       </c>
@@ -10570,7 +10795,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="17">
         <v>30098</v>
       </c>
@@ -10584,7 +10809,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="17">
         <v>30099</v>
       </c>
@@ -10598,7 +10823,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="17">
         <v>30100</v>
       </c>
@@ -10612,7 +10837,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="17">
         <v>30101</v>
       </c>
@@ -10626,7 +10851,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="17">
         <v>30102</v>
       </c>
@@ -10640,7 +10865,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="17">
         <v>30103</v>
       </c>
@@ -10654,7 +10879,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="17">
         <v>30104</v>
       </c>
@@ -10668,7 +10893,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="17">
         <v>30105</v>
       </c>
@@ -10682,7 +10907,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="17">
         <v>30106</v>
       </c>
@@ -10696,7 +10921,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="17">
         <v>30108</v>
       </c>
@@ -10710,7 +10935,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="17">
         <v>30109</v>
       </c>
@@ -10724,7 +10949,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="17">
         <v>30110</v>
       </c>
@@ -10738,7 +10963,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="17">
         <v>30111</v>
       </c>
@@ -10752,7 +10977,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="17">
         <v>30206</v>
       </c>
@@ -10766,7 +10991,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="17">
         <v>30112</v>
       </c>
@@ -10780,7 +11005,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="17">
         <v>30113</v>
       </c>
@@ -10794,7 +11019,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="17">
         <v>30013</v>
       </c>
@@ -10808,7 +11033,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="17">
         <v>30114</v>
       </c>
@@ -10822,7 +11047,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="17">
         <v>30115</v>
       </c>
@@ -10836,7 +11061,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="17">
         <v>30116</v>
       </c>
@@ -10850,7 +11075,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="17">
         <v>30117</v>
       </c>
@@ -10864,7 +11089,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="17">
         <v>30118</v>
       </c>
@@ -10878,7 +11103,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="17">
         <v>30119</v>
       </c>
@@ -10892,7 +11117,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="17">
         <v>30120</v>
       </c>
@@ -10906,7 +11131,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="17">
         <v>30121</v>
       </c>
@@ -10920,7 +11145,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="17">
         <v>30122</v>
       </c>
@@ -10934,7 +11159,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="17">
         <v>30123</v>
       </c>
@@ -10948,7 +11173,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="17">
         <v>30124</v>
       </c>
@@ -10962,7 +11187,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="17">
         <v>30126</v>
       </c>
@@ -10976,7 +11201,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="17">
         <v>30125</v>
       </c>
@@ -10990,7 +11215,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="17">
         <v>30128</v>
       </c>
@@ -11004,7 +11229,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="17">
         <v>30129</v>
       </c>
@@ -11018,7 +11243,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="17">
         <v>30130</v>
       </c>
@@ -11032,7 +11257,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="17">
         <v>30131</v>
       </c>
@@ -11046,7 +11271,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="17">
         <v>30133</v>
       </c>
@@ -11060,7 +11285,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="17">
         <v>30134</v>
       </c>
@@ -11074,7 +11299,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="17">
         <v>30135</v>
       </c>
@@ -11088,7 +11313,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="17">
         <v>30136</v>
       </c>
@@ -11102,7 +11327,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="17">
         <v>30138</v>
       </c>
@@ -11116,7 +11341,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="17">
         <v>30139</v>
       </c>
@@ -11130,7 +11355,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="17">
         <v>30140</v>
       </c>
@@ -11144,7 +11369,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="17">
         <v>30141</v>
       </c>
@@ -11158,7 +11383,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="17">
         <v>30142</v>
       </c>
@@ -11172,7 +11397,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="17">
         <v>30211</v>
       </c>
@@ -11186,7 +11411,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="17">
         <v>30212</v>
       </c>
@@ -11200,7 +11425,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="17">
         <v>30143</v>
       </c>
@@ -11214,7 +11439,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="17">
         <v>30144</v>
       </c>
@@ -11228,7 +11453,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="17">
         <v>30146</v>
       </c>
@@ -11242,7 +11467,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="17">
         <v>30145</v>
       </c>
@@ -11256,7 +11481,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="17">
         <v>30147</v>
       </c>
@@ -11270,7 +11495,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="17">
         <v>30148</v>
       </c>
@@ -11284,7 +11509,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="17">
         <v>30149</v>
       </c>
@@ -11298,7 +11523,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="17">
         <v>30150</v>
       </c>
@@ -11312,7 +11537,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="17">
         <v>30151</v>
       </c>
@@ -11326,7 +11551,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="17">
         <v>30152</v>
       </c>
@@ -11340,7 +11565,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="17">
         <v>30153</v>
       </c>
@@ -11354,7 +11579,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="17">
         <v>30155</v>
       </c>
@@ -11368,7 +11593,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="17">
         <v>30209</v>
       </c>
@@ -11382,7 +11607,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="17">
         <v>30156</v>
       </c>
@@ -11396,7 +11621,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="17">
         <v>30158</v>
       </c>
@@ -11410,7 +11635,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="17">
         <v>30159</v>
       </c>
@@ -11424,7 +11649,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="17">
         <v>30161</v>
       </c>
@@ -11438,7 +11663,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="17">
         <v>30162</v>
       </c>
@@ -11452,7 +11677,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="17">
         <v>30163</v>
       </c>
@@ -11466,7 +11691,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="17">
         <v>30164</v>
       </c>
@@ -11480,7 +11705,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="17">
         <v>30165</v>
       </c>
@@ -11494,7 +11719,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="17">
         <v>30166</v>
       </c>
@@ -11508,7 +11733,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="17">
         <v>30167</v>
       </c>
@@ -11522,7 +11747,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="17">
         <v>30168</v>
       </c>
@@ -11536,7 +11761,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="17">
         <v>30170</v>
       </c>
@@ -11550,7 +11775,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="17">
         <v>30171</v>
       </c>
@@ -11564,7 +11789,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="17">
         <v>30172</v>
       </c>
@@ -11578,7 +11803,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="17">
         <v>30173</v>
       </c>
@@ -11592,7 +11817,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="17">
         <v>30174</v>
       </c>
@@ -11606,7 +11831,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="17">
         <v>30175</v>
       </c>
@@ -11620,7 +11845,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="17">
         <v>30180</v>
       </c>
@@ -11634,7 +11859,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="17">
         <v>30176</v>
       </c>
@@ -11648,7 +11873,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="17">
         <v>30177</v>
       </c>
@@ -11662,7 +11887,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="17">
         <v>30178</v>
       </c>
@@ -11676,7 +11901,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="17">
         <v>30179</v>
       </c>
@@ -11690,7 +11915,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="17">
         <v>30181</v>
       </c>
@@ -11704,7 +11929,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="17">
         <v>30182</v>
       </c>
@@ -11718,7 +11943,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="17">
         <v>30024</v>
       </c>
@@ -11732,7 +11957,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="17">
         <v>30183</v>
       </c>
@@ -11746,7 +11971,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="17">
         <v>30184</v>
       </c>
@@ -11760,7 +11985,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="17">
         <v>30185</v>
       </c>
@@ -11774,7 +11999,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="17">
         <v>30186</v>
       </c>
@@ -11788,7 +12013,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="17">
         <v>30187</v>
       </c>
@@ -11802,7 +12027,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="17">
         <v>30188</v>
       </c>
@@ -11816,7 +12041,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="17">
         <v>30189</v>
       </c>
@@ -11830,7 +12055,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="17">
         <v>30190</v>
       </c>
@@ -11844,7 +12069,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="17">
         <v>30191</v>
       </c>
@@ -11858,7 +12083,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="17">
         <v>30210</v>
       </c>
@@ -11872,7 +12097,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="17">
         <v>30192</v>
       </c>
@@ -11886,7 +12111,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="17">
         <v>30193</v>
       </c>
@@ -11900,7 +12125,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="17">
         <v>30194</v>
       </c>
@@ -11914,7 +12139,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="17">
         <v>30087</v>
       </c>
@@ -11928,7 +12153,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="17">
         <v>30092</v>
       </c>
@@ -11942,7 +12167,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="17">
         <v>30195</v>
       </c>
@@ -11956,7 +12181,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="17">
         <v>30196</v>
       </c>
@@ -11970,7 +12195,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="17">
         <v>30197</v>
       </c>
@@ -11984,7 +12209,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="17">
         <v>30198</v>
       </c>
@@ -11998,7 +12223,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="17">
         <v>30199</v>
       </c>
@@ -12012,7 +12237,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="17">
         <v>30200</v>
       </c>
@@ -12026,7 +12251,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="17">
         <v>30201</v>
       </c>
@@ -12040,7 +12265,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="17">
         <v>30202</v>
       </c>
@@ -12054,7 +12279,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="17">
         <v>30203</v>
       </c>
@@ -12077,18 +12302,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0F69A4-AA32-40DB-9048-661D0086BF3B}">
   <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D176" sqref="A2:D176"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="23"/>
-    <col min="3" max="3" width="41.85546875" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="23"/>
+    <col min="1" max="2" width="11.44140625" style="23"/>
+    <col min="3" max="3" width="41.88671875" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>255</v>
       </c>
@@ -12102,7 +12327,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="24">
         <f>VLOOKUP(B2,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30001</v>
@@ -12117,7 +12342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <f>VLOOKUP(B3,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30002</v>
@@ -12132,7 +12357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <f>VLOOKUP(B4,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30004</v>
@@ -12147,7 +12372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <f>VLOOKUP(B5,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30005</v>
@@ -12162,7 +12387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <f>VLOOKUP(B6,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30006</v>
@@ -12177,7 +12402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
         <f>VLOOKUP(B7,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30204</v>
@@ -12192,7 +12417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
         <f>VLOOKUP(B8,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30160</v>
@@ -12207,7 +12432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <f>VLOOKUP(B9,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30009</v>
@@ -12222,7 +12447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <f>VLOOKUP(B10,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30010</v>
@@ -12237,7 +12462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <f>VLOOKUP(B11,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30011</v>
@@ -12252,7 +12477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <f>VLOOKUP(B12,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30012</v>
@@ -12267,7 +12492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <f>VLOOKUP(B13,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30014</v>
@@ -12282,7 +12507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <f>VLOOKUP(B14,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30015</v>
@@ -12297,7 +12522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <f>VLOOKUP(B15,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30017</v>
@@ -12312,7 +12537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <f>VLOOKUP(B16,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30018</v>
@@ -12327,7 +12552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <f>VLOOKUP(B17,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30020</v>
@@ -12342,7 +12567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <f>VLOOKUP(B18,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30021</v>
@@ -12357,7 +12582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f>VLOOKUP(B19,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30023</v>
@@ -12372,7 +12597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <f>VLOOKUP(B20,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30025</v>
@@ -12387,7 +12612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <f>VLOOKUP(B21,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30026</v>
@@ -12402,7 +12627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <f>VLOOKUP(B22,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30027</v>
@@ -12417,7 +12642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <f>VLOOKUP(B23,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30028</v>
@@ -12432,7 +12657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <f>VLOOKUP(B24,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30007</v>
@@ -12447,7 +12672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <f>VLOOKUP(B25,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30030</v>
@@ -12462,7 +12687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <f>VLOOKUP(B26,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30208</v>
@@ -12477,7 +12702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <f>VLOOKUP(B27,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30031</v>
@@ -12492,7 +12717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <f>VLOOKUP(B28,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30032</v>
@@ -12507,7 +12732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <f>VLOOKUP(B29,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30033</v>
@@ -12522,7 +12747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <f>VLOOKUP(B30,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30034</v>
@@ -12537,7 +12762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <f>VLOOKUP(B31,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30054</v>
@@ -12552,7 +12777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <f>VLOOKUP(B32,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30055</v>
@@ -12567,7 +12792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <f>VLOOKUP(B33,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30056</v>
@@ -12582,7 +12807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <f>VLOOKUP(B34,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30057</v>
@@ -12597,7 +12822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <f>VLOOKUP(B35,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30058</v>
@@ -12612,7 +12837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <f>VLOOKUP(B36,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30059</v>
@@ -12627,7 +12852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <f>VLOOKUP(B37,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30060</v>
@@ -12642,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <f>VLOOKUP(B38,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30062</v>
@@ -12657,7 +12882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <f>VLOOKUP(B39,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30063</v>
@@ -12672,7 +12897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <f>VLOOKUP(B40,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30035</v>
@@ -12687,7 +12912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <f>VLOOKUP(B41,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30036</v>
@@ -12702,7 +12927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <f>VLOOKUP(B42,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30038</v>
@@ -12717,7 +12942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <f>VLOOKUP(B43,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30039</v>
@@ -12732,7 +12957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <f>VLOOKUP(B44,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30040</v>
@@ -12747,7 +12972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <f>VLOOKUP(B45,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30041</v>
@@ -12762,7 +12987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <f>VLOOKUP(B46,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30043</v>
@@ -12777,7 +13002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <f>VLOOKUP(B47,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30044</v>
@@ -12792,7 +13017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <f>VLOOKUP(B48,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30045</v>
@@ -12807,7 +13032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <f>VLOOKUP(B49,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30046</v>
@@ -12822,7 +13047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <f>VLOOKUP(B50,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30047</v>
@@ -12837,7 +13062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <f>VLOOKUP(B51,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30050</v>
@@ -12852,7 +13077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <f>VLOOKUP(B52,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30052</v>
@@ -12867,7 +13092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <f>VLOOKUP(B53,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30053</v>
@@ -12882,7 +13107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <f>VLOOKUP(B54,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30205</v>
@@ -12897,7 +13122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <f>VLOOKUP(B55,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30065</v>
@@ -12912,7 +13137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <f>VLOOKUP(B56,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30068</v>
@@ -12927,7 +13152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <f>VLOOKUP(B57,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30069</v>
@@ -12942,7 +13167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <f>VLOOKUP(B58,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30071</v>
@@ -12957,7 +13182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <f>VLOOKUP(B59,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30072</v>
@@ -12972,7 +13197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <f>VLOOKUP(B60,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30073</v>
@@ -12987,7 +13212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <f>VLOOKUP(B61,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30074</v>
@@ -13002,7 +13227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <f>VLOOKUP(B62,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30076</v>
@@ -13017,7 +13242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <f>VLOOKUP(B63,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30078</v>
@@ -13032,7 +13257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <f>VLOOKUP(B64,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30079</v>
@@ -13047,7 +13272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <f>VLOOKUP(B65,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30083</v>
@@ -13062,7 +13287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <f>VLOOKUP(B66,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30080</v>
@@ -13077,7 +13302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <f>VLOOKUP(B67,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30082</v>
@@ -13092,7 +13317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <f>VLOOKUP(B68,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30081</v>
@@ -13107,7 +13332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <f>VLOOKUP(B69,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30084</v>
@@ -13122,7 +13347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <f>VLOOKUP(B70,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30085</v>
@@ -13137,7 +13362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <f>VLOOKUP(B71,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30086</v>
@@ -13152,7 +13377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <f>VLOOKUP(B72,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30089</v>
@@ -13167,7 +13392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <f>VLOOKUP(B73,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30090</v>
@@ -13182,7 +13407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <f>VLOOKUP(B74,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30091</v>
@@ -13197,7 +13422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <f>VLOOKUP(B75,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30093</v>
@@ -13212,7 +13437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="24">
         <f>VLOOKUP(B76,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30094</v>
@@ -13227,7 +13452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <f>VLOOKUP(B77,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30016</v>
@@ -13242,7 +13467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="24">
         <f>VLOOKUP(B78,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30127</v>
@@ -13257,7 +13482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <f>VLOOKUP(B79,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30096</v>
@@ -13272,7 +13497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="24">
         <f>VLOOKUP(B80,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30107</v>
@@ -13287,7 +13512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="24">
         <f>VLOOKUP(B81,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30132</v>
@@ -13302,7 +13527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="24">
         <f>VLOOKUP(B82,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30097</v>
@@ -13317,7 +13542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24">
         <f>VLOOKUP(B83,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30137</v>
@@ -13332,7 +13557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="24">
         <f>VLOOKUP(B84,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30098</v>
@@ -13347,7 +13572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="24">
         <f>VLOOKUP(B85,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30099</v>
@@ -13362,7 +13587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="24">
         <f>VLOOKUP(B86,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30101</v>
@@ -13377,7 +13602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="24">
         <f>VLOOKUP(B87,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30102</v>
@@ -13392,7 +13617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="24">
         <f>VLOOKUP(B88,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30104</v>
@@ -13407,7 +13632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="24" t="e">
         <f>VLOOKUP(B89,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>#N/A</v>
@@ -13422,7 +13647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="24">
         <f>VLOOKUP(B90,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30106</v>
@@ -13437,7 +13662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="24">
         <f>VLOOKUP(B91,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30108</v>
@@ -13452,7 +13677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="24">
         <f>VLOOKUP(B92,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30109</v>
@@ -13467,7 +13692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="24">
         <f>VLOOKUP(B93,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30110</v>
@@ -13482,7 +13707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="24">
         <f>VLOOKUP(B94,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30111</v>
@@ -13497,7 +13722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="e">
         <f>VLOOKUP(B95,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>#N/A</v>
@@ -13512,7 +13737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="24">
         <f>VLOOKUP(B96,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30112</v>
@@ -13527,7 +13752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="24">
         <f>VLOOKUP(B97,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30113</v>
@@ -13542,7 +13767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="24">
         <f>VLOOKUP(B98,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30013</v>
@@ -13557,7 +13782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="24">
         <f>VLOOKUP(B99,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30115</v>
@@ -13572,7 +13797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="24">
         <f>VLOOKUP(B100,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30117</v>
@@ -13587,7 +13812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="24">
         <f>VLOOKUP(B101,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30118</v>
@@ -13602,7 +13827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="24">
         <f>VLOOKUP(B102,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30119</v>
@@ -13617,7 +13842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="24">
         <f>VLOOKUP(B103,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30120</v>
@@ -13632,7 +13857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="24">
         <f>VLOOKUP(B104,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30121</v>
@@ -13647,7 +13872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="24">
         <f>VLOOKUP(B105,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30122</v>
@@ -13662,7 +13887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="24">
         <f>VLOOKUP(B106,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30123</v>
@@ -13677,7 +13902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="24">
         <f>VLOOKUP(B107,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30124</v>
@@ -13692,7 +13917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="24">
         <f>VLOOKUP(B108,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30128</v>
@@ -13707,7 +13932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="24">
         <f>VLOOKUP(B109,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30129</v>
@@ -13722,7 +13947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="24">
         <f>VLOOKUP(B110,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30130</v>
@@ -13737,7 +13962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="24">
         <f>VLOOKUP(B111,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30131</v>
@@ -13752,7 +13977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="24">
         <f>VLOOKUP(B112,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30133</v>
@@ -13767,7 +13992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="24">
         <f>VLOOKUP(B113,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30134</v>
@@ -13782,7 +14007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="24">
         <f>VLOOKUP(B114,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30135</v>
@@ -13797,7 +14022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="24">
         <f>VLOOKUP(B115,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30136</v>
@@ -13812,7 +14037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="24">
         <f>VLOOKUP(B116,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30138</v>
@@ -13827,7 +14052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="24">
         <f>VLOOKUP(B117,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30139</v>
@@ -13842,7 +14067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="24">
         <f>VLOOKUP(B118,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30141</v>
@@ -13857,7 +14082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="24">
         <f>VLOOKUP(B119,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30211</v>
@@ -13872,7 +14097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="24">
         <f>VLOOKUP(B120,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30212</v>
@@ -13887,7 +14112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="24">
         <f>VLOOKUP(B121,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30143</v>
@@ -13902,7 +14127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="24">
         <f>VLOOKUP(B122,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30146</v>
@@ -13917,7 +14142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="24">
         <f>VLOOKUP(B123,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30145</v>
@@ -13932,7 +14157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="24">
         <f>VLOOKUP(B124,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30149</v>
@@ -13947,7 +14172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="24">
         <f>VLOOKUP(B125,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30150</v>
@@ -13962,7 +14187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="24">
         <f>VLOOKUP(B126,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30151</v>
@@ -13977,7 +14202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="24">
         <f>VLOOKUP(B127,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30152</v>
@@ -13992,7 +14217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="24">
         <f>VLOOKUP(B128,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30153</v>
@@ -14007,7 +14232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="24">
         <f>VLOOKUP(B129,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30154</v>
@@ -14022,7 +14247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="24">
         <f>VLOOKUP(B130,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30155</v>
@@ -14037,7 +14262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="24">
         <f>VLOOKUP(B131,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30209</v>
@@ -14052,7 +14277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="24">
         <f>VLOOKUP(B132,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30156</v>
@@ -14067,7 +14292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="24">
         <f>VLOOKUP(B133,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30161</v>
@@ -14082,7 +14307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="24">
         <f>VLOOKUP(B134,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30162</v>
@@ -14097,7 +14322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="24">
         <f>VLOOKUP(B135,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30163</v>
@@ -14112,7 +14337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="24">
         <f>VLOOKUP(B136,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30164</v>
@@ -14127,7 +14352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="24">
         <f>VLOOKUP(B137,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30165</v>
@@ -14142,7 +14367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="24">
         <f>VLOOKUP(B138,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30166</v>
@@ -14157,7 +14382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="24">
         <f>VLOOKUP(B139,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30167</v>
@@ -14172,7 +14397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="24">
         <f>VLOOKUP(B140,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30168</v>
@@ -14187,7 +14412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="24">
         <f>VLOOKUP(B141,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30170</v>
@@ -14202,7 +14427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="24">
         <f>VLOOKUP(B142,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30171</v>
@@ -14217,7 +14442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24">
         <f>VLOOKUP(B143,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30172</v>
@@ -14232,7 +14457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="24">
         <f>VLOOKUP(B144,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30173</v>
@@ -14247,7 +14472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="24">
         <f>VLOOKUP(B145,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30174</v>
@@ -14262,7 +14487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="24">
         <f>VLOOKUP(B146,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30180</v>
@@ -14277,7 +14502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="24">
         <f>VLOOKUP(B147,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30176</v>
@@ -14292,7 +14517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="24">
         <f>VLOOKUP(B148,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30177</v>
@@ -14307,7 +14532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="24">
         <f>VLOOKUP(B149,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30178</v>
@@ -14322,7 +14547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="24">
         <f>VLOOKUP(B150,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30179</v>
@@ -14337,7 +14562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="24">
         <f>VLOOKUP(B151,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30181</v>
@@ -14352,7 +14577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="24">
         <f>VLOOKUP(B152,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30182</v>
@@ -14367,7 +14592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="24">
         <f>VLOOKUP(B153,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30024</v>
@@ -14382,7 +14607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="24">
         <f>VLOOKUP(B154,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30183</v>
@@ -14397,7 +14622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="24">
         <f>VLOOKUP(B155,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30184</v>
@@ -14412,7 +14637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="24">
         <f>VLOOKUP(B156,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30185</v>
@@ -14427,7 +14652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="24">
         <f>VLOOKUP(B157,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30186</v>
@@ -14442,7 +14667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="24">
         <f>VLOOKUP(B158,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30187</v>
@@ -14457,7 +14682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="24">
         <f>VLOOKUP(B159,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30188</v>
@@ -14472,7 +14697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="24">
         <f>VLOOKUP(B160,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30207</v>
@@ -14487,7 +14712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="24">
         <f>VLOOKUP(B161,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30189</v>
@@ -14502,7 +14727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="24">
         <f>VLOOKUP(B162,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30190</v>
@@ -14517,7 +14742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="24">
         <f>VLOOKUP(B163,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30191</v>
@@ -14532,7 +14757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="24">
         <f>VLOOKUP(B164,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30210</v>
@@ -14547,7 +14772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="24">
         <f>VLOOKUP(B165,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30192</v>
@@ -14562,7 +14787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="24">
         <f>VLOOKUP(B166,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30193</v>
@@ -14577,7 +14802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="24">
         <f>VLOOKUP(B167,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30194</v>
@@ -14592,7 +14817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="24">
         <f>VLOOKUP(B168,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30087</v>
@@ -14607,7 +14832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="24">
         <f>VLOOKUP(B169,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30092</v>
@@ -14622,7 +14847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="24">
         <f>VLOOKUP(B170,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30195</v>
@@ -14637,7 +14862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="24">
         <f>VLOOKUP(B171,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30196</v>
@@ -14652,7 +14877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="24">
         <f>VLOOKUP(B172,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30198</v>
@@ -14667,7 +14892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="24">
         <f>VLOOKUP(B173,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30200</v>
@@ -14682,7 +14907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="24">
         <f>VLOOKUP(B174,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30201</v>
@@ -14697,7 +14922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="24">
         <f>VLOOKUP(B175,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30202</v>
@@ -14712,7 +14937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="24">
         <f>VLOOKUP(B176,'[1]cabeceras (localidades)'!$D:$E,2,FALSE)</f>
         <v>30203</v>
@@ -14731,4 +14956,2217 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1461AC-45E8-477A-AC9D-B9DBB643237C}">
+  <dimension ref="A1:D157"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="H141" sqref="H141"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
+        <v>30004</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>30009</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>30011</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>30021</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>30026</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>30027</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>30028</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>30029</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>30031</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D10" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>30034</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="D11" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>30054</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="D12" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="28">
+        <v>30058</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="28">
+        <v>30062</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D14" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="28">
+        <v>30063</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="D15" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="28">
+        <v>30035</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="28">
+        <v>30036</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="28">
+        <v>30039</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D18" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="28">
+        <v>30043</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D19" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="28">
+        <v>30044</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D20" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="28">
+        <v>30047</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D21" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="28">
+        <v>30065</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D22" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="28">
+        <v>30068</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D23" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="28">
+        <v>30071</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D24" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="28">
+        <v>30072</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D25" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="28">
+        <v>30074</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D26" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="28">
+        <v>30075</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D27" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="28">
+        <v>30076</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D28" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="28">
+        <v>30078</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="D29" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="28">
+        <v>30079</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="D30" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="28">
+        <v>30083</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D31" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="28">
+        <v>30080</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D32" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="28">
+        <v>30016</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="D33" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="28">
+        <v>30097</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="D34" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="28">
+        <v>30137</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D35" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="28">
+        <v>30098</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D36" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="28">
+        <v>30099</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D37" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="28">
+        <v>30105</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D38" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="28">
+        <v>30106</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D39" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="28">
+        <v>30110</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="D40" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="28">
+        <v>30112</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D41" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="28">
+        <v>30113</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D42" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="28">
+        <v>30013</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D43" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="28">
+        <v>30117</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="D44" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="28">
+        <v>30118</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D45" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="28">
+        <v>30121</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D46" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="28">
+        <v>30123</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D47" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="28">
+        <v>30135</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D48" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="28">
+        <v>30211</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="D49" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="28">
+        <v>30211</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="D50" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="28">
+        <v>30146</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D51" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="28">
+        <v>30152</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D52" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="28">
+        <v>30155</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D53" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="28">
+        <v>30162</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D54" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="28">
+        <v>30164</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D55" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="28">
+        <v>30165</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D56" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="28">
+        <v>30168</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D57" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="28">
+        <v>30170</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D58" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="28">
+        <v>30171</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="D59" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="28">
+        <v>30173</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D60" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="28">
+        <v>30180</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D61" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="28">
+        <v>30179</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D62" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="28">
+        <v>30181</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D63" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="28">
+        <v>30024</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D64" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="28">
+        <v>30183</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="D65" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="28">
+        <v>30185</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D66" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="28">
+        <v>30186</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D67" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="28">
+        <v>30187</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D68" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="28">
+        <v>30188</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="D69" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="28">
+        <v>30190</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="D70" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="28">
+        <v>30193</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="D71" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="28">
+        <v>30087</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="D72" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="28">
+        <v>30092</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D73" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="28">
+        <v>30198</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D74" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="28">
+        <v>30201</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D75" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="28">
+        <v>30202</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D76" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="28">
+        <v>30203</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="D77" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="30">
+        <v>30001</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="D78" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="30">
+        <v>30204</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D79" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="30">
+        <v>30160</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="D80" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="30">
+        <v>30011</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="D81" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="30">
+        <v>30012</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D82" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="30">
+        <v>30015</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D83" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="30">
+        <v>30026</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="30">
+        <v>30028</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="D85" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="30">
+        <v>30157</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="D86" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="30">
+        <v>30032</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="D87" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="30">
+        <v>30033</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D88" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="30">
+        <v>30034</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="D89" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="30">
+        <v>30054</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="D90" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="30">
+        <v>30059</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D91" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="30">
+        <v>30060</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D92" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="30">
+        <v>30062</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D93" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="30">
+        <v>30063</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D94" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="30">
+        <v>30035</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="D95" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="30">
+        <v>30039</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="D96" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="30">
+        <v>30044</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="D97" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="30">
+        <v>30066</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D98" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="30">
+        <v>30068</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="30">
+        <v>30073</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="D100" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="30">
+        <v>30078</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D101" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="30">
+        <v>30077</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="D102" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="30">
+        <v>30089</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="D103" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="30">
+        <v>30091</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D104" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="30">
+        <v>30093</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="D105" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="30">
+        <v>30169</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D106" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="30">
+        <v>30094</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D107" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="30">
+        <v>30016</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="D108" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="30">
+        <v>30099</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="D109" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="30">
+        <v>30103</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D110" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="30">
+        <v>30102</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D111" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="30">
+        <v>30106</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D112" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="30">
+        <v>30109</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="D113" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="30">
+        <v>30206</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="D114" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="30">
+        <v>30013</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="D115" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="30">
+        <v>30118</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="D116" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="30">
+        <v>30122</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D117" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="30">
+        <v>30124</v>
+      </c>
+      <c r="B118" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D118" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="30">
+        <v>30128</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D119" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="30">
+        <v>30130</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D120" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="30">
+        <v>30134</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="D121" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="30">
+        <v>30141</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="D122" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="30">
+        <v>30143</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D123" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="30">
+        <v>30146</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D124" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="30">
+        <v>30145</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D125" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="30">
+        <v>30149</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D126" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="30">
+        <v>30150</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D127" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="30">
+        <v>30153</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D128" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="30">
+        <v>30164</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="D129" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="30">
+        <v>30167</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D130" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="30">
+        <v>30174</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C131" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D131" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="30">
+        <v>30176</v>
+      </c>
+      <c r="B132" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C132" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D132" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="30">
+        <v>30183</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C133" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="D133" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="30">
+        <v>30207</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C134" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D134" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="30">
+        <v>30190</v>
+      </c>
+      <c r="B135" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="C135" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D135" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="30">
+        <v>30191</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="D136" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="30">
+        <v>30193</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="D137" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="30">
+        <v>30194</v>
+      </c>
+      <c r="B138" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C138" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="D138" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="30">
+        <v>30087</v>
+      </c>
+      <c r="B139" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C139" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="D139" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="30">
+        <v>30092</v>
+      </c>
+      <c r="B140" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="D140" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="30">
+        <v>30197</v>
+      </c>
+      <c r="B141" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C141" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D141" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="30">
+        <v>30203</v>
+      </c>
+      <c r="B142" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="D142" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="33">
+        <v>30160</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C143" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="D143" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="33">
+        <v>30039</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="D144" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="33">
+        <v>30205</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="D145" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="33">
+        <v>30085</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="D146" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="33">
+        <v>30099</v>
+      </c>
+      <c r="B147" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="D147" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="33">
+        <v>30104</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="D148" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="33">
+        <v>30206</v>
+      </c>
+      <c r="B149" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="D149" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="33">
+        <v>30116</v>
+      </c>
+      <c r="B150" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="D150" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="33">
+        <v>30120</v>
+      </c>
+      <c r="B151" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="D151" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="33">
+        <v>30131</v>
+      </c>
+      <c r="B152" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C152" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="D152" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="33">
+        <v>30136</v>
+      </c>
+      <c r="B153" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="D153" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="33">
+        <v>30182</v>
+      </c>
+      <c r="B154" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="D154" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="33">
+        <v>30183</v>
+      </c>
+      <c r="B155" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="D155" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="33">
+        <v>30087</v>
+      </c>
+      <c r="B156" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="D156" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="33">
+        <v>30196</v>
+      </c>
+      <c r="B157" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="D157" s="32">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>